--- a/docs/ST6/ST6_02.08.24_output.xlsx
+++ b/docs/ST6/ST6_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,826 +505,977 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731505152.0869048</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731505152.2128086</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505152.0869048.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505152.2128086.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.16</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>286.72</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731505171.897286</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731505172.0973663</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505171.897286.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505172.0973663.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>286.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>286.66</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731505172.1490948</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731505172.8742623</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505172.1490948.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505172.8742623.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>286.94</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>287.12</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731505179.7333777</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731505179.8319538</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505179.7333777.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505179.8319538.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>285.49</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>285.41</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731505180.6996176</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731505180.944309</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505180.6996176.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505180.944309.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>285.77</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>285.91</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.1400000000000432</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731505181.4527783</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731505181.537689</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505181.4527783.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505181.537689.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>285.98</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>285.95</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.03000000000002956</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731505182.149645</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731505182.3009257</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505182.149645.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505182.3009257.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>285.89</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>285.95</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731505182.5097897</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731505182.6854737</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505182.5097897.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731505182.6854737.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>286.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>286.26</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.1100000000000136</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731505183.0700183</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731505183.2193465</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505183.0700183.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505183.2193465.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>131.46</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>131.67</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731505192.0836327</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731505192.324705</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505192.0836327.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505192.324705.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>130.49</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731505192.3754573</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731505192.5257614</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505192.3754573.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505192.5257614.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.19</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>130.43</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731505199.293711</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731505199.5933566</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505199.293711.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505199.5933566.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>131.73</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>131.44</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731505205.2279692</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731505205.3011694</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505205.2279692.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505205.3011694.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>130.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>130.95</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731505206.6065245</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731505206.8085568</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505206.6065245.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505206.8085568.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>131.27</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>131.13</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731505207.6069252</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731505207.709404</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505207.6069252.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505207.709404.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>131.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>131.26</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731505208.4394526</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731505208.4833722</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505208.4394526.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505208.4833722.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>131.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>131.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1317,734 +1483,869 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731505208.5311968</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731505208.607325</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505208.5311968.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731505208.607325.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>131.27</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>131.29</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731505210.5895867</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731505210.9585142</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505210.5895867.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505210.9585142.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6669.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6663.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731505211.8340092</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731505211.9452746</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505211.8340092.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505211.9452746.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6710.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6695</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>15.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731505219.7912986</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731505220.1338608</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505219.7912986.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505220.1338608.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6624.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6620</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-4.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731505220.3515108</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731505221.067896</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505220.3515108.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505221.067896.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6616</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6611</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731505226.0856824</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731505226.248673</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505226.0856824.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505226.248673.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6656</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6647</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>9</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731505228.1743226</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731505228.6886742</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505228.1743226.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505228.6886742.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6610.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6608</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731505231.3756204</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731505231.5327568</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505231.3756204.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505231.5327568.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6599.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6597</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731505232.0432043</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731505232.2364533</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505232.0432043.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505232.2364533.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6599.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6601</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731505233.0045652</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731505233.1314456</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505233.0045652.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505233.1314456.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6597.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6599</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731505233.9571497</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731505234.0274217</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505233.9571497.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505234.0274217.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6599</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6600</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731505235.2054536</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731505235.248255</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505235.2054536.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731505235.248255.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6596</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6601.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731505246.27658</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731505246.5420513</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731505246.27658.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731505246.5420513.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>504.1</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>504.95</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.8499999999999659</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731505249.6804142</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731505249.96813</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731505249.6804142.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731505249.96813.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>508.3</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>506.95</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.350000000000023</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731505258.7575667</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731505258.8053918</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731505258.7575667.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731505258.8053918.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>505</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>505</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2052,391 +2353,463 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731505269.0424418</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731505269.2470865</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505269.0424418.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505269.2470865.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>227.15</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>227.52</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731505271.4875803</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731505271.566637</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505271.4875803.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505271.566637.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>227.16</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>227.41</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731505275.0918994</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731505275.3271146</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505275.0918994.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505275.3271146.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>231.71</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>231.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731505281.1230574</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731505281.3133764</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505281.1230574.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505281.3133764.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>230.1</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>230.14</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731505283.0771153</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731505283.1561716</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505283.0771153.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505283.1561716.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>230.38</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>230.44</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731505284.754861</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731505284.8631964</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505284.754861.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505284.8631964.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>230.07</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>230.22</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731505286.0939646</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731505286.2413123</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505286.0939646.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731505286.2413123.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>230.24</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>230.16</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731505300.2678258</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731505300.458147</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731505300.2678258.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731505300.458147.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1022.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1022.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2444,1371 +2817,1623 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731505314.9513278</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731505315.323186</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731505314.9513278.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731505315.323186.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>11.865</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>11.866</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.0009999999999994458</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731505326.7687469</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731505327.0976582</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731505326.7687469.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731505327.0976582.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>128</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>128.1</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731505357.377099</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731505357.726507</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505357.377099.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505357.726507.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>165.92</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>166.46</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.5400000000000205</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731505359.8454137</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731505359.9576526</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505359.8454137.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505359.9576526.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>165.1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>165.54</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731505360.0747736</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731505360.4222302</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505360.0747736.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505360.4222302.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>165.04</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>165.26</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731505365.4732618</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731505365.57867</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505365.4732618.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505365.57867.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>164.88</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>164.92</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731505366.6473927</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731505366.756705</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505366.6473927.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505366.756705.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>165.28</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>165.22</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731505367.4008687</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731505367.5814285</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505367.4008687.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731505367.5814285.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>165.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>165.62</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731505374.2225552</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731505374.8315508</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731505374.2225552.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731505374.8315508.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>50.455</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>50.525</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731505377.1075974</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731505377.1856782</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731505377.1075974.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731505377.1856782.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>50.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>50.48</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731505383.9913454</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731505384.096753</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731505383.9913454.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731505384.096753.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>50.5</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>50.42</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731505393.045298</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731505393.3156493</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731505393.045298.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731505393.3156493.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>50.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>50.43</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731505407.1063218</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731505407.3542254</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731505407.1063218.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731505407.3542254.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1397.6</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1396</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731505409.8522022</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731505410.1196256</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731505409.8522022.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731505410.1196256.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1411.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1407.4</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731505419.833185</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731505419.9893453</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731505419.833185.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731505419.9893453.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>60.21</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>60.44</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731505442.4169629</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731505442.6277783</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731505442.4169629.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731505442.6277783.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>60.26</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>60.31</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731505450.7903156</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731505450.9601395</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731505450.7903156.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731505450.9601395.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.92</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>57.07</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731505461.6955628</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731505462.0605865</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731505461.6955628.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731505462.0605865.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>57.16</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>57.07</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731505469.6012406</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731505469.6480994</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731505469.6012406.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731505469.6480994.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>56.68</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>56.75</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731505473.8213532</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731505474.1082976</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731505473.8213532.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731505474.1082976.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>144.42</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>143.76</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.6599999999999966</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731505488.162186</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731505488.9254243</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731505488.162186.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731505488.9254243.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>144.94</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>146.64</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-1.699999999999989</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731505494.1808844</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731505494.286291</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731505494.1808844.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731505494.286291.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>144.5</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>144.7</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731505495.4803877</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731505495.6131241</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731505495.4803877.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731505495.6131241.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>145.62</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>145.2</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731505514.287932</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731505514.507607</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505514.287932.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505514.507607.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>21.159</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>21.036</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1229999999999976</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731505519.5961244</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731505519.7347138</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505519.5961244.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505519.7347138.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>20.697</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>20.714</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.01699999999999946</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731505520.2035232</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731505520.3382115</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505520.2035232.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505520.3382115.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>20.735</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>20.731</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.003999999999997783</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731505520.7276356</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731505520.998963</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505520.7276356.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505520.998963.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>20.789</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>20.791</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.001999999999998892</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731505521.5211608</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731505521.5972881</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505521.5211608.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505521.5972881.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>20.835</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>20.835</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3816,195 +4441,231 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731505522.0238008</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731505522.151672</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505522.0238008.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505522.151672.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>20.879</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>20.878</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731505522.4503286</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731505522.5235295</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505522.4503286.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505522.5235295.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>20.927</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>20.901</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.0259999999999998</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731505523.0778966</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731505523.1276724</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505523.0778966.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505523.1276724.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>20.855</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>20.888</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.03300000000000125</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731505529.0770445</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731505529.834464</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505529.0770445.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505529.834464.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>672.4</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>672.4</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4012,244 +4673,289 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731505534.4097655</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731505534.8358836</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505534.4097655.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505534.8358836.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>671.3</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>670</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-1.299999999999955</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731505536.730261</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731505537.0220847</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505536.730261.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505537.0220847.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>663.8</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>665</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731505540.126322</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731505540.8262405</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505540.126322.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505540.8262405.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>669.6</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>670.25</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.6499999999999773</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731505545.4554713</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731505545.8419843</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505545.4554713.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505545.8419843.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>673.95</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>674</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731505545.9747207</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731505546.391481</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505545.9747207.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505546.391481.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>673.6</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>673.6</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4257,146 +4963,173 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731505546.6630218</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731505546.7242973</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505546.6630218.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505546.7242973.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>673.75</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>673.55</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731505547.2459605</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731505547.5525224</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505547.2459605.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505547.5525224.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>674</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>674.45</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.4500000000000455</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731505547.5964499</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731505547.6755123</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505547.5964499.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505547.6755123.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>674.45</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>674.45</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4404,1176 +5137,1392 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731505549.0297005</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731505549.1331558</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505549.0297005.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505549.1331558.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>676.2</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>676</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731505549.6260483</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731505549.845484</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505549.6260483.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505549.845484.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>676.75</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>677.05</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.2999999999999545</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731505550.5098937</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731505550.5996883</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505550.5098937.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505550.5996883.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>677.65</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>677.5</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731505564.8202305</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731505564.8700073</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505564.8202305.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505564.8700073.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.09912000000000001</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.0004800000000000082</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731505571.3210783</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731505571.4303908</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505571.3210783.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505571.4303908.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>0.09882000000000001</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.0989</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>7.999999999999674e-05</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731505572.013066</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731505572.131163</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505572.013066.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505572.131163.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.09882000000000001</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.0001999999999999919</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731505589.2580318</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731505589.3536806</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505589.2580318.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505589.3536806.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>0.6031000000000001</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.6026</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.000500000000000056</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731505589.6025949</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731505589.7577524</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505589.6025949.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505589.7577524.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>0.6037</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.6033000000000001</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.0003999999999999559</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731505604.7482357</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731505604.830716</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505604.7482357.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505604.830716.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>2971.1</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>2972.1</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731505605.0586176</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731505605.189402</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505605.0586176.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505605.189402.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2976.75</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>2977</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731505605.8214126</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731505605.9170606</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505605.8214126.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505605.9170606.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2971.95</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2973.15</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>1.200000000000273</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731505607.9195766</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731505608.0650015</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505607.9195766.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505608.0650015.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2970.3</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2968.05</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-2.25</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731505609.1727617</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731505609.3142815</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505609.1727617.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505609.3142815.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2957.7</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2956.95</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731505610.9163969</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731505611.1301398</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505610.9163969.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505611.1301398.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2957</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2955.5</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731505611.9929254</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731505612.1032128</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505611.9929254.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505612.1032128.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2961.95</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2959.35</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731505613.1494951</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731505613.259782</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505613.1494951.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505613.259782.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2973.85</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2971.25</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731505614.9658427</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731505615.0175984</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505614.9658427.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505615.0175984.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2980.95</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2979.4</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>1.549999999999727</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731505616.226869</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731505616.339108</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505616.226869.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505616.339108.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2979.7</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>2982</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>2.300000000000182</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731505620.8961382</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731505621.0762954</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505620.8961382.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505621.0762954.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2963.8</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>2966.75</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-2.949999999999818</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731505624.4776404</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731505624.6045206</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505624.4776404.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505624.6045206.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>2966.25</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>2964.4</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>1.849999999999909</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731505630.8901246</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731505631.4054515</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505630.8901246.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505631.4054515.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>34.18</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>34.07</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731505635.8404195</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731505636.1597993</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505635.8404195.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505636.1597993.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>34.07</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>34.1</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731505640.0749624</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731505640.3658118</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505640.0749624.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505640.3658118.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>34.34</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>34.365</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.02499999999999858</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731505641.8932555</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731505641.9723127</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505641.8932555.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505641.9723127.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>34.61</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>34.54</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -5587,7 +6536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5616,6 +6565,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5632,6 +6591,12 @@
       <c r="D2" t="n">
         <v>-0.08333333333331439</v>
       </c>
+      <c r="E2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5648,6 +6613,12 @@
       <c r="D3" t="n">
         <v>0.4500000000000076</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5664,6 +6635,12 @@
       <c r="D4" t="n">
         <v>0.9545454545454546</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5680,6 +6657,12 @@
       <c r="D5" t="n">
         <v>0.117777777777778</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5696,6 +6679,12 @@
       <c r="D6" t="n">
         <v>0.02524999999999977</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5712,6 +6701,12 @@
       <c r="D7" t="n">
         <v>0.05499999999999261</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5728,6 +6723,12 @@
       <c r="D8" t="n">
         <v>0.1800000000000028</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5744,6 +6745,12 @@
       <c r="D9" t="n">
         <v>0.0333333333333267</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5760,6 +6767,12 @@
       <c r="D10" t="n">
         <v>0.01499999999999879</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5776,6 +6789,12 @@
       <c r="D11" t="n">
         <v>-0.008749999999999147</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5792,6 +6811,12 @@
       <c r="D12" t="n">
         <v>-0.1049999999999969</v>
       </c>
+      <c r="E12" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5808,6 +6833,12 @@
       <c r="D13" t="n">
         <v>0.0002533333333333322</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5824,6 +6855,12 @@
       <c r="D14" t="n">
         <v>0.7333333333333295</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5840,6 +6877,12 @@
       <c r="D15" t="n">
         <v>0.1033333333333317</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5856,6 +6899,12 @@
       <c r="D16" t="n">
         <v>0.000450000000000006</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5872,6 +6921,12 @@
       <c r="D17" t="n">
         <v>0.08999999999999631</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5888,6 +6943,12 @@
       <c r="D18" t="n">
         <v>1.200000000000045</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5904,6 +6965,12 @@
       <c r="D19" t="n">
         <v>-0.09999999999999432</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5920,6 +6987,12 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5936,6 +7009,12 @@
       <c r="D21" t="n">
         <v>-0.0009999999999994458</v>
       </c>
+      <c r="E21" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5950,6 +7029,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
